--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\works\rachadinha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E9F7A9-21FD-4BA1-B72F-906E296BA2D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72979B51-769D-4D41-9250-4CE787E1335C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +115,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -265,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -281,6 +295,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,20 +815,96 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="15">
+        <f>(SUM(C13:C20)/8)</f>
+        <v>500</v>
+      </c>
+      <c r="D12" s="15">
+        <v>500</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>$D$12+D13</f>
+        <v>650</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" ref="C14:C22" si="1">$D$12+D14</f>
+        <v>350</v>
+      </c>
+      <c r="D14">
+        <v>-150</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="D16">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="D17">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="D18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="D19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="D20">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\works\rachadinha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72979B51-769D-4D41-9250-4CE787E1335C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EE2D23-A1E0-4E6B-9128-46FF0AD3B4CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="95">
   <si>
     <t>John</t>
   </si>
@@ -85,13 +88,241 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Beryllium</t>
+  </si>
+  <si>
+    <t>Boron</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>    { idplayer:  5, name: 'Boron',     amount: 400.00, balance: 0.00, positive_balance: 0.00, current_balance: 0.00, free: false, recap: false },</t>
+  </si>
+  <si>
+    <t>    { idplayer:  4, name: 'Beryllium', amount: 400.00, balance: 0.00, positive_balance: 0.00, current_balance: 0.00, free: false, recap: false },</t>
+  </si>
+  <si>
+    <t>    { idplayer:  3, name: 'Lithium',   amount: 700.00, balance: 0.00, positive_balance: 0.00, current_balance: 0.00, free: false, recap: false },</t>
+  </si>
+  <si>
+    <t>    { idplayer:  2, name: 'Helium',    amount: 350.00, balance: 0.00, positive_balance: 0.00, current_balance: 0.00, free: false, recap: false },</t>
+  </si>
+  <si>
+    <t>    { idplayer:  1, name: 'Hydrogen',  amount: 650.00, balance: 0.00, positive_balance: 0.00, current_balance: 0.00, free: false, recap: false },</t>
+  </si>
+  <si>
+    <t>    { idplayer:  6, name: 'Carbon',    amount:  12.07, balance: 0.00, positive_balance: 0.00, current_balance: 0.00, free: false, recap: false },</t>
+  </si>
+  <si>
+    <t>    { idplayer:  7, name: 'Nitrogen',  amount:  14.67, balance: 0.00, positive_balance: 0.00, current_balance: 0.00, free: false, recap: false },</t>
+  </si>
+  <si>
+    <t>    { idplayer:  8, name: 'Oxygen',    amount:  15.94, balance: 0.00, positive_balance: 0.00, current_balance: 0.00, free: false, recap: false },</t>
+  </si>
+  <si>
+    <t>    { idplayer:  9, name: 'Fluorine',  amount:  18.94, balance: 0.00, positive_balance: 0.00, current_balance: 0.00, free: false, recap: false },</t>
+  </si>
+  <si>
+    <t>    { idplayer: 10, name: 'Neon',      amount:  20.17, balance: 0.00, positive_balance: 0.00, current_balance: 0.00, free: false, recap: false },</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>idplayer:</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>name:</t>
+  </si>
+  <si>
+    <t>balance:</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>positive_balance:</t>
+  </si>
+  <si>
+    <t>current_balance:</t>
+  </si>
+  <si>
+    <t>free:</t>
+  </si>
+  <si>
+    <t>recap:</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>amount:</t>
+  </si>
+  <si>
+    <t>"Hydrogen"</t>
+  </si>
+  <si>
+    <t>"Helium"</t>
+  </si>
+  <si>
+    <t>"Lithium"</t>
+  </si>
+  <si>
+    <t>"Beryllium"</t>
+  </si>
+  <si>
+    <t>"Boron"</t>
+  </si>
+  <si>
+    <t>"Carbon"</t>
+  </si>
+  <si>
+    <t>"Nitrogen"</t>
+  </si>
+  <si>
+    <t>"Fluorine"</t>
+  </si>
+  <si>
+    <t>"Neon"</t>
+  </si>
+  <si>
+    <t>Fp</t>
+  </si>
+  <si>
+    <t>"Sodium"</t>
+  </si>
+  <si>
+    <t>"Magnesium"</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Sum2</t>
+  </si>
+  <si>
+    <t>Sum1</t>
+  </si>
+  <si>
+    <t>"Oxygen"</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>pbal</t>
+  </si>
+  <si>
+    <t>pcbal</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Pag</t>
+  </si>
+  <si>
+    <t>02z01</t>
+  </si>
+  <si>
+    <t>02z03</t>
+  </si>
+  <si>
+    <t>02z04</t>
+  </si>
+  <si>
+    <t>02z05</t>
+  </si>
+  <si>
+    <t>02z07</t>
+  </si>
+  <si>
+    <t>06z01</t>
+  </si>
+  <si>
+    <t>06z03</t>
+  </si>
+  <si>
+    <t>06z04</t>
+  </si>
+  <si>
+    <t>06z05</t>
+  </si>
+  <si>
+    <t>06z07</t>
+  </si>
+  <si>
+    <t>08z01</t>
+  </si>
+  <si>
+    <t>08z03</t>
+  </si>
+  <si>
+    <t>08z04</t>
+  </si>
+  <si>
+    <t>08z05</t>
+  </si>
+  <si>
+    <t>08z07</t>
+  </si>
+  <si>
+    <t>09z01</t>
+  </si>
+  <si>
+    <t>09z03</t>
+  </si>
+  <si>
+    <t>09z04</t>
+  </si>
+  <si>
+    <t>09z05</t>
+  </si>
+  <si>
+    <t>09z07</t>
+  </si>
+  <si>
+    <t>10z01</t>
+  </si>
+  <si>
+    <t>10z03</t>
+  </si>
+  <si>
+    <t>10z04</t>
+  </si>
+  <si>
+    <t>10z05</t>
+  </si>
+  <si>
+    <t>10z07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +354,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +391,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -275,11 +541,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -297,6 +603,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -838,7 +1184,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14">
-        <f t="shared" ref="C14:C22" si="1">$D$12+D14</f>
+        <f t="shared" ref="C14:C20" si="1">$D$12+D14</f>
         <v>350</v>
       </c>
       <c r="D14">
@@ -913,4 +1259,2915 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C3E1FA-3FCD-4DF0-A42F-CC087F5B1BCC}">
+  <dimension ref="A2:H11"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="68.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="183" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.7109375" style="18" customWidth="1"/>
+    <col min="13" max="16384" width="68.28515625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="19">
+        <v>700</v>
+      </c>
+      <c r="C2" s="19">
+        <v>200</v>
+      </c>
+      <c r="D2" s="19">
+        <v>200</v>
+      </c>
+      <c r="E2" s="19">
+        <v>200</v>
+      </c>
+      <c r="F2" s="18">
+        <v>3</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="19">
+        <v>400</v>
+      </c>
+      <c r="C3" s="19">
+        <v>-100</v>
+      </c>
+      <c r="D3" s="19">
+        <v>-100</v>
+      </c>
+      <c r="E3" s="19">
+        <v>100</v>
+      </c>
+      <c r="F3" s="18">
+        <v>4</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="19">
+        <v>400</v>
+      </c>
+      <c r="C4" s="19">
+        <v>-100</v>
+      </c>
+      <c r="D4" s="19">
+        <v>-100</v>
+      </c>
+      <c r="E4" s="19">
+        <v>100</v>
+      </c>
+      <c r="F4" s="18">
+        <v>5</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="19">
+        <v>350</v>
+      </c>
+      <c r="C5" s="19">
+        <v>-150</v>
+      </c>
+      <c r="D5" s="19">
+        <v>-150</v>
+      </c>
+      <c r="E5" s="19">
+        <v>150</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="19">
+        <v>650</v>
+      </c>
+      <c r="C6" s="19">
+        <v>150</v>
+      </c>
+      <c r="D6" s="19">
+        <v>150</v>
+      </c>
+      <c r="E6" s="19">
+        <v>150</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <f>SUM(B2:B6)</f>
+        <v>2500</v>
+      </c>
+      <c r="C7" s="19">
+        <f t="shared" ref="C7:E7" si="0">SUM(C2:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80319264-5D5B-455A-A6DF-E8F74CCC7543}">
+  <dimension ref="A1:AB13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" customWidth="1"/>
+    <col min="30" max="30" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1">
+        <v>650</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="22">
+        <f>C1-$AA$4</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>350</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="22">
+        <f t="shared" ref="AB2:AB5" si="0">C2-$AA$4</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>700</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="21">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4">
+        <f>AA5/5</f>
+        <v>500</v>
+      </c>
+      <c r="AB4" s="21">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5">
+        <f>SUM(C1:C5)</f>
+        <v>2500</v>
+      </c>
+      <c r="AB5" s="21">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4">
+        <f>$AA$10+AB6</f>
+        <v>200</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="4">
+        <v>6</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="25">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="27">
+        <f>$AA$10+AB7</f>
+        <v>650</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="27">
+        <v>7</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="27">
+        <f>$AA$10+AB8</f>
+        <v>650</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="27">
+        <v>8</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="27">
+        <f>$AA$10+AB9</f>
+        <v>700</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="27">
+        <v>9</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27">
+        <f>AA11/6</f>
+        <v>500</v>
+      </c>
+      <c r="AB9" s="29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="27">
+        <f>$AA$10+AB10</f>
+        <v>400</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="27">
+        <v>10</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>500</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" ref="C11" si="1">$AA$10+AB11</f>
+        <v>400</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="7">
+        <v>11</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA11" s="7">
+        <f>SUM(C6:C11)</f>
+        <v>3000</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="27">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="27">
+        <v>12</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBCDF93-F762-4FDA-92CF-A92F9FD4A44F}">
+  <dimension ref="A1:T27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="10.42578125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="18">
+        <v>850</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="18">
+        <v>3</v>
+      </c>
+      <c r="R1" s="18">
+        <v>4</v>
+      </c>
+      <c r="S1" s="18">
+        <v>5</v>
+      </c>
+      <c r="T1" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="34">
+        <v>-20</v>
+      </c>
+      <c r="C2" s="34">
+        <v>-410</v>
+      </c>
+      <c r="D2" s="34">
+        <v>2</v>
+      </c>
+      <c r="E2" s="34">
+        <v>-410</v>
+      </c>
+      <c r="F2" s="34">
+        <v>-410</v>
+      </c>
+      <c r="G2" s="34">
+        <v>1</v>
+      </c>
+      <c r="H2" s="34">
+        <v>390</v>
+      </c>
+      <c r="I2" s="34">
+        <v>390</v>
+      </c>
+      <c r="J2" s="34">
+        <f>I2*100/$J$1</f>
+        <v>45.882352941176471</v>
+      </c>
+      <c r="K2" s="34">
+        <f>F2*(J2/100)</f>
+        <v>-188.11764705882351</v>
+      </c>
+      <c r="L2" s="35">
+        <f>H2+E2</f>
+        <v>-20</v>
+      </c>
+      <c r="M2" s="36">
+        <v>390</v>
+      </c>
+      <c r="P2" s="34">
+        <f t="shared" ref="P2:T17" si="0">IF(P$1=$G2,$K2,0)</f>
+        <v>-188.11764705882351</v>
+      </c>
+      <c r="Q2" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="38">
+        <v>-220</v>
+      </c>
+      <c r="C3" s="38">
+        <v>-410</v>
+      </c>
+      <c r="D3" s="38">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38">
+        <v>-410</v>
+      </c>
+      <c r="F3" s="38">
+        <v>-410</v>
+      </c>
+      <c r="G3" s="38">
+        <v>3</v>
+      </c>
+      <c r="H3" s="38">
+        <v>190</v>
+      </c>
+      <c r="I3" s="38">
+        <v>190</v>
+      </c>
+      <c r="J3" s="38">
+        <f t="shared" ref="J3:J26" si="1">I3*100/$J$1</f>
+        <v>22.352941176470587</v>
+      </c>
+      <c r="K3" s="38">
+        <f t="shared" ref="K3:K26" si="2">F3*(J3/100)</f>
+        <v>-91.647058823529406</v>
+      </c>
+      <c r="L3" s="38">
+        <v>0</v>
+      </c>
+      <c r="M3" s="39"/>
+      <c r="P3" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="38">
+        <f t="shared" si="0"/>
+        <v>-91.647058823529406</v>
+      </c>
+      <c r="R3" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="38">
+        <v>-320</v>
+      </c>
+      <c r="C4" s="38">
+        <v>-410</v>
+      </c>
+      <c r="D4" s="38">
+        <v>2</v>
+      </c>
+      <c r="E4" s="38">
+        <v>-410</v>
+      </c>
+      <c r="F4" s="38">
+        <v>-410</v>
+      </c>
+      <c r="G4" s="38">
+        <v>4</v>
+      </c>
+      <c r="H4" s="38">
+        <v>90</v>
+      </c>
+      <c r="I4" s="38">
+        <v>90</v>
+      </c>
+      <c r="J4" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" si="2"/>
+        <v>-43.411764705882355</v>
+      </c>
+      <c r="L4" s="38">
+        <v>0</v>
+      </c>
+      <c r="M4" s="39"/>
+      <c r="P4" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="38">
+        <f t="shared" si="0"/>
+        <v>-43.411764705882355</v>
+      </c>
+      <c r="S4" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="38">
+        <v>-320</v>
+      </c>
+      <c r="C5" s="38">
+        <v>-410</v>
+      </c>
+      <c r="D5" s="38">
+        <v>2</v>
+      </c>
+      <c r="E5" s="38">
+        <v>-410</v>
+      </c>
+      <c r="F5" s="38">
+        <v>-410</v>
+      </c>
+      <c r="G5" s="38">
+        <v>5</v>
+      </c>
+      <c r="H5" s="38">
+        <v>90</v>
+      </c>
+      <c r="I5" s="38">
+        <v>90</v>
+      </c>
+      <c r="J5" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K5" s="38">
+        <f t="shared" si="2"/>
+        <v>-43.411764705882355</v>
+      </c>
+      <c r="L5" s="38">
+        <v>0</v>
+      </c>
+      <c r="M5" s="39"/>
+      <c r="P5" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="38">
+        <f t="shared" si="0"/>
+        <v>-43.411764705882355</v>
+      </c>
+      <c r="T5" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="41">
+        <v>-320</v>
+      </c>
+      <c r="C6" s="41">
+        <v>-410</v>
+      </c>
+      <c r="D6" s="41">
+        <v>2</v>
+      </c>
+      <c r="E6" s="41">
+        <v>-410</v>
+      </c>
+      <c r="F6" s="41">
+        <v>-410</v>
+      </c>
+      <c r="G6" s="41">
+        <v>7</v>
+      </c>
+      <c r="H6" s="41">
+        <v>90</v>
+      </c>
+      <c r="I6" s="41">
+        <v>90</v>
+      </c>
+      <c r="J6" s="41">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K6" s="41">
+        <f t="shared" si="2"/>
+        <v>-43.411764705882355</v>
+      </c>
+      <c r="L6" s="41">
+        <v>0</v>
+      </c>
+      <c r="M6" s="42">
+        <v>20</v>
+      </c>
+      <c r="P6" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="42">
+        <f t="shared" si="0"/>
+        <v>-43.411764705882355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="38">
+        <v>380</v>
+      </c>
+      <c r="C7" s="38">
+        <v>-10</v>
+      </c>
+      <c r="D7" s="38">
+        <v>6</v>
+      </c>
+      <c r="E7" s="38">
+        <v>-10</v>
+      </c>
+      <c r="F7" s="38">
+        <v>-10</v>
+      </c>
+      <c r="G7" s="38">
+        <v>1</v>
+      </c>
+      <c r="H7" s="38">
+        <v>390</v>
+      </c>
+      <c r="I7" s="38">
+        <v>390</v>
+      </c>
+      <c r="J7" s="38">
+        <f t="shared" si="1"/>
+        <v>45.882352941176471</v>
+      </c>
+      <c r="K7" s="38">
+        <f t="shared" si="2"/>
+        <v>-4.5882352941176467</v>
+      </c>
+      <c r="L7" s="38">
+        <v>0</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="P7" s="34">
+        <f t="shared" si="0"/>
+        <v>-4.5882352941176467</v>
+      </c>
+      <c r="Q7" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="38">
+        <v>180</v>
+      </c>
+      <c r="C8" s="38">
+        <v>-10</v>
+      </c>
+      <c r="D8" s="38">
+        <v>6</v>
+      </c>
+      <c r="E8" s="38">
+        <v>-10</v>
+      </c>
+      <c r="F8" s="38">
+        <v>-10</v>
+      </c>
+      <c r="G8" s="38">
+        <v>3</v>
+      </c>
+      <c r="H8" s="38">
+        <v>190</v>
+      </c>
+      <c r="I8" s="38">
+        <v>190</v>
+      </c>
+      <c r="J8" s="38">
+        <f t="shared" si="1"/>
+        <v>22.352941176470587</v>
+      </c>
+      <c r="K8" s="38">
+        <f t="shared" si="2"/>
+        <v>-2.2352941176470589</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="P8" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="38">
+        <f t="shared" si="0"/>
+        <v>-2.2352941176470589</v>
+      </c>
+      <c r="R8" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="38">
+        <v>80</v>
+      </c>
+      <c r="C9" s="38">
+        <v>-10</v>
+      </c>
+      <c r="D9" s="38">
+        <v>6</v>
+      </c>
+      <c r="E9" s="38">
+        <v>-10</v>
+      </c>
+      <c r="F9" s="38">
+        <v>-10</v>
+      </c>
+      <c r="G9" s="38">
+        <v>4</v>
+      </c>
+      <c r="H9" s="38">
+        <v>90</v>
+      </c>
+      <c r="I9" s="38">
+        <v>90</v>
+      </c>
+      <c r="J9" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K9" s="38">
+        <f t="shared" si="2"/>
+        <v>-1.0588235294117647</v>
+      </c>
+      <c r="L9" s="38">
+        <v>0</v>
+      </c>
+      <c r="M9" s="38"/>
+      <c r="P9" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="38">
+        <f t="shared" si="0"/>
+        <v>-1.0588235294117647</v>
+      </c>
+      <c r="S9" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="38">
+        <v>80</v>
+      </c>
+      <c r="C10" s="38">
+        <v>-10</v>
+      </c>
+      <c r="D10" s="38">
+        <v>6</v>
+      </c>
+      <c r="E10" s="38">
+        <v>-10</v>
+      </c>
+      <c r="F10" s="38">
+        <v>-10</v>
+      </c>
+      <c r="G10" s="38">
+        <v>5</v>
+      </c>
+      <c r="H10" s="38">
+        <v>90</v>
+      </c>
+      <c r="I10" s="38">
+        <v>90</v>
+      </c>
+      <c r="J10" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="2"/>
+        <v>-1.0588235294117647</v>
+      </c>
+      <c r="L10" s="38">
+        <v>0</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="P10" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="38">
+        <f t="shared" si="0"/>
+        <v>-1.0588235294117647</v>
+      </c>
+      <c r="T10" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="38">
+        <v>80</v>
+      </c>
+      <c r="C11" s="38">
+        <v>-10</v>
+      </c>
+      <c r="D11" s="38">
+        <v>6</v>
+      </c>
+      <c r="E11" s="38">
+        <v>-10</v>
+      </c>
+      <c r="F11" s="38">
+        <v>-10</v>
+      </c>
+      <c r="G11" s="38">
+        <v>7</v>
+      </c>
+      <c r="H11" s="38">
+        <v>90</v>
+      </c>
+      <c r="I11" s="38">
+        <v>90</v>
+      </c>
+      <c r="J11" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="2"/>
+        <v>-1.0588235294117647</v>
+      </c>
+      <c r="L11" s="38">
+        <v>0</v>
+      </c>
+      <c r="M11" s="38">
+        <v>10</v>
+      </c>
+      <c r="P11" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="42">
+        <f t="shared" si="0"/>
+        <v>-1.0588235294117647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="34">
+        <v>280</v>
+      </c>
+      <c r="C12" s="34">
+        <v>-110</v>
+      </c>
+      <c r="D12" s="34">
+        <v>8</v>
+      </c>
+      <c r="E12" s="34">
+        <v>-110</v>
+      </c>
+      <c r="F12" s="34">
+        <v>-110</v>
+      </c>
+      <c r="G12" s="34">
+        <v>1</v>
+      </c>
+      <c r="H12" s="34">
+        <v>390</v>
+      </c>
+      <c r="I12" s="34">
+        <v>390</v>
+      </c>
+      <c r="J12" s="34">
+        <f t="shared" si="1"/>
+        <v>45.882352941176471</v>
+      </c>
+      <c r="K12" s="34">
+        <f t="shared" si="2"/>
+        <v>-50.470588235294116</v>
+      </c>
+      <c r="L12" s="34">
+        <v>0</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="P12" s="34">
+        <f t="shared" si="0"/>
+        <v>-50.470588235294116</v>
+      </c>
+      <c r="Q12" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="38">
+        <v>80</v>
+      </c>
+      <c r="C13" s="38">
+        <v>-110</v>
+      </c>
+      <c r="D13" s="38">
+        <v>8</v>
+      </c>
+      <c r="E13" s="38">
+        <v>-110</v>
+      </c>
+      <c r="F13" s="38">
+        <v>-110</v>
+      </c>
+      <c r="G13" s="38">
+        <v>3</v>
+      </c>
+      <c r="H13" s="38">
+        <v>190</v>
+      </c>
+      <c r="I13" s="38">
+        <v>190</v>
+      </c>
+      <c r="J13" s="38">
+        <f t="shared" si="1"/>
+        <v>22.352941176470587</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" si="2"/>
+        <v>-24.588235294117645</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="P13" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="38">
+        <f t="shared" si="0"/>
+        <v>-24.588235294117645</v>
+      </c>
+      <c r="R13" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="38">
+        <v>-20</v>
+      </c>
+      <c r="C14" s="38">
+        <v>-110</v>
+      </c>
+      <c r="D14" s="38">
+        <v>8</v>
+      </c>
+      <c r="E14" s="38">
+        <v>-110</v>
+      </c>
+      <c r="F14" s="38">
+        <v>-110</v>
+      </c>
+      <c r="G14" s="38">
+        <v>4</v>
+      </c>
+      <c r="H14" s="38">
+        <v>90</v>
+      </c>
+      <c r="I14" s="38">
+        <v>90</v>
+      </c>
+      <c r="J14" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K14" s="38">
+        <f t="shared" si="2"/>
+        <v>-11.647058823529411</v>
+      </c>
+      <c r="L14" s="44">
+        <f t="shared" ref="L14:L23" si="3">H14+E14</f>
+        <v>-20</v>
+      </c>
+      <c r="M14" s="39">
+        <v>90</v>
+      </c>
+      <c r="P14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="38">
+        <f t="shared" si="0"/>
+        <v>-11.647058823529411</v>
+      </c>
+      <c r="S14" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="38">
+        <v>-20</v>
+      </c>
+      <c r="C15" s="38">
+        <v>-110</v>
+      </c>
+      <c r="D15" s="38">
+        <v>8</v>
+      </c>
+      <c r="E15" s="38">
+        <v>-110</v>
+      </c>
+      <c r="F15" s="38">
+        <v>-110</v>
+      </c>
+      <c r="G15" s="38">
+        <v>5</v>
+      </c>
+      <c r="H15" s="38">
+        <v>90</v>
+      </c>
+      <c r="I15" s="38">
+        <v>90</v>
+      </c>
+      <c r="J15" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K15" s="38">
+        <f t="shared" si="2"/>
+        <v>-11.647058823529411</v>
+      </c>
+      <c r="L15" s="38">
+        <v>0</v>
+      </c>
+      <c r="M15" s="39"/>
+      <c r="P15" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="38">
+        <f t="shared" si="0"/>
+        <v>-11.647058823529411</v>
+      </c>
+      <c r="T15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="41">
+        <v>-20</v>
+      </c>
+      <c r="C16" s="41">
+        <v>-110</v>
+      </c>
+      <c r="D16" s="41">
+        <v>8</v>
+      </c>
+      <c r="E16" s="41">
+        <v>-110</v>
+      </c>
+      <c r="F16" s="41">
+        <v>-110</v>
+      </c>
+      <c r="G16" s="41">
+        <v>7</v>
+      </c>
+      <c r="H16" s="41">
+        <v>90</v>
+      </c>
+      <c r="I16" s="41">
+        <v>90</v>
+      </c>
+      <c r="J16" s="41">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K16" s="41">
+        <f t="shared" si="2"/>
+        <v>-11.647058823529411</v>
+      </c>
+      <c r="L16" s="41">
+        <v>0</v>
+      </c>
+      <c r="M16" s="42">
+        <v>20</v>
+      </c>
+      <c r="P16" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="42">
+        <f t="shared" si="0"/>
+        <v>-11.647058823529411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="38">
+        <v>280</v>
+      </c>
+      <c r="C17" s="38">
+        <v>-110</v>
+      </c>
+      <c r="D17" s="38">
+        <v>9</v>
+      </c>
+      <c r="E17" s="38">
+        <v>-110</v>
+      </c>
+      <c r="F17" s="38">
+        <v>-110</v>
+      </c>
+      <c r="G17" s="38">
+        <v>1</v>
+      </c>
+      <c r="H17" s="38">
+        <v>390</v>
+      </c>
+      <c r="I17" s="38">
+        <v>390</v>
+      </c>
+      <c r="J17" s="38">
+        <f t="shared" si="1"/>
+        <v>45.882352941176471</v>
+      </c>
+      <c r="K17" s="38">
+        <f t="shared" si="2"/>
+        <v>-50.470588235294116</v>
+      </c>
+      <c r="L17" s="38">
+        <v>0</v>
+      </c>
+      <c r="M17" s="38"/>
+      <c r="P17" s="34">
+        <f t="shared" si="0"/>
+        <v>-50.470588235294116</v>
+      </c>
+      <c r="Q17" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="38">
+        <v>80</v>
+      </c>
+      <c r="C18" s="38">
+        <v>-110</v>
+      </c>
+      <c r="D18" s="38">
+        <v>9</v>
+      </c>
+      <c r="E18" s="38">
+        <v>-110</v>
+      </c>
+      <c r="F18" s="38">
+        <v>-110</v>
+      </c>
+      <c r="G18" s="38">
+        <v>3</v>
+      </c>
+      <c r="H18" s="38">
+        <v>190</v>
+      </c>
+      <c r="I18" s="38">
+        <v>190</v>
+      </c>
+      <c r="J18" s="38">
+        <f t="shared" si="1"/>
+        <v>22.352941176470587</v>
+      </c>
+      <c r="K18" s="38">
+        <f t="shared" si="2"/>
+        <v>-24.588235294117645</v>
+      </c>
+      <c r="L18" s="38">
+        <v>0</v>
+      </c>
+      <c r="M18" s="38"/>
+      <c r="P18" s="38">
+        <f t="shared" ref="P18:T32" si="4">IF(P$1=$G18,$K18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="38">
+        <f t="shared" si="4"/>
+        <v>-24.588235294117645</v>
+      </c>
+      <c r="R18" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="38">
+        <v>-20</v>
+      </c>
+      <c r="C19" s="38">
+        <v>-110</v>
+      </c>
+      <c r="D19" s="38">
+        <v>9</v>
+      </c>
+      <c r="E19" s="38">
+        <v>-110</v>
+      </c>
+      <c r="F19" s="38">
+        <v>-110</v>
+      </c>
+      <c r="G19" s="38">
+        <v>4</v>
+      </c>
+      <c r="H19" s="38">
+        <v>90</v>
+      </c>
+      <c r="I19" s="38">
+        <v>90</v>
+      </c>
+      <c r="J19" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K19" s="38">
+        <f t="shared" si="2"/>
+        <v>-11.647058823529411</v>
+      </c>
+      <c r="L19" s="38">
+        <v>0</v>
+      </c>
+      <c r="M19" s="38"/>
+      <c r="P19" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="38">
+        <f t="shared" si="4"/>
+        <v>-11.647058823529411</v>
+      </c>
+      <c r="S19" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="38">
+        <v>-20</v>
+      </c>
+      <c r="C20" s="38">
+        <v>-110</v>
+      </c>
+      <c r="D20" s="38">
+        <v>9</v>
+      </c>
+      <c r="E20" s="38">
+        <v>-110</v>
+      </c>
+      <c r="F20" s="38">
+        <v>-110</v>
+      </c>
+      <c r="G20" s="38">
+        <v>5</v>
+      </c>
+      <c r="H20" s="38">
+        <v>90</v>
+      </c>
+      <c r="I20" s="38">
+        <v>90</v>
+      </c>
+      <c r="J20" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="2"/>
+        <v>-11.647058823529411</v>
+      </c>
+      <c r="L20" s="44">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="M20" s="38">
+        <v>90</v>
+      </c>
+      <c r="P20" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="38">
+        <f t="shared" si="4"/>
+        <v>-11.647058823529411</v>
+      </c>
+      <c r="T20" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="38">
+        <v>-20</v>
+      </c>
+      <c r="C21" s="38">
+        <v>-110</v>
+      </c>
+      <c r="D21" s="38">
+        <v>9</v>
+      </c>
+      <c r="E21" s="38">
+        <v>-110</v>
+      </c>
+      <c r="F21" s="38">
+        <v>-110</v>
+      </c>
+      <c r="G21" s="38">
+        <v>7</v>
+      </c>
+      <c r="H21" s="38">
+        <v>90</v>
+      </c>
+      <c r="I21" s="38">
+        <v>90</v>
+      </c>
+      <c r="J21" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K21" s="38">
+        <f t="shared" si="2"/>
+        <v>-11.647058823529411</v>
+      </c>
+      <c r="L21" s="38">
+        <v>0</v>
+      </c>
+      <c r="M21" s="38">
+        <v>20</v>
+      </c>
+      <c r="P21" s="41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="42">
+        <f t="shared" si="4"/>
+        <v>-11.647058823529411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="34">
+        <v>180</v>
+      </c>
+      <c r="C22" s="34">
+        <v>-210</v>
+      </c>
+      <c r="D22" s="34">
+        <v>10</v>
+      </c>
+      <c r="E22" s="34">
+        <v>-210</v>
+      </c>
+      <c r="F22" s="34">
+        <v>-210</v>
+      </c>
+      <c r="G22" s="34">
+        <v>1</v>
+      </c>
+      <c r="H22" s="34">
+        <v>390</v>
+      </c>
+      <c r="I22" s="34">
+        <v>390</v>
+      </c>
+      <c r="J22" s="34">
+        <f t="shared" si="1"/>
+        <v>45.882352941176471</v>
+      </c>
+      <c r="K22" s="34">
+        <f t="shared" si="2"/>
+        <v>-96.35294117647058</v>
+      </c>
+      <c r="L22" s="34">
+        <v>0</v>
+      </c>
+      <c r="M22" s="36"/>
+      <c r="P22" s="34">
+        <f t="shared" si="4"/>
+        <v>-96.35294117647058</v>
+      </c>
+      <c r="Q22" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="38">
+        <v>-20</v>
+      </c>
+      <c r="C23" s="38">
+        <v>-210</v>
+      </c>
+      <c r="D23" s="38">
+        <v>10</v>
+      </c>
+      <c r="E23" s="38">
+        <v>-210</v>
+      </c>
+      <c r="F23" s="38">
+        <v>-210</v>
+      </c>
+      <c r="G23" s="38">
+        <v>3</v>
+      </c>
+      <c r="H23" s="38">
+        <v>190</v>
+      </c>
+      <c r="I23" s="38">
+        <v>190</v>
+      </c>
+      <c r="J23" s="38">
+        <f t="shared" si="1"/>
+        <v>22.352941176470587</v>
+      </c>
+      <c r="K23" s="38">
+        <f t="shared" si="2"/>
+        <v>-46.941176470588232</v>
+      </c>
+      <c r="L23" s="44">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="M23" s="39">
+        <v>190</v>
+      </c>
+      <c r="P23" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="38">
+        <f t="shared" si="4"/>
+        <v>-46.941176470588232</v>
+      </c>
+      <c r="R23" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="38">
+        <v>-120</v>
+      </c>
+      <c r="C24" s="38">
+        <v>-210</v>
+      </c>
+      <c r="D24" s="38">
+        <v>10</v>
+      </c>
+      <c r="E24" s="38">
+        <v>-210</v>
+      </c>
+      <c r="F24" s="38">
+        <v>-210</v>
+      </c>
+      <c r="G24" s="38">
+        <v>4</v>
+      </c>
+      <c r="H24" s="38">
+        <v>90</v>
+      </c>
+      <c r="I24" s="38">
+        <v>90</v>
+      </c>
+      <c r="J24" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K24" s="38">
+        <f t="shared" si="2"/>
+        <v>-22.235294117647058</v>
+      </c>
+      <c r="L24" s="38">
+        <v>0</v>
+      </c>
+      <c r="M24" s="39"/>
+      <c r="P24" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="38">
+        <f t="shared" si="4"/>
+        <v>-22.235294117647058</v>
+      </c>
+      <c r="S24" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="38">
+        <v>-120</v>
+      </c>
+      <c r="C25" s="38">
+        <v>-210</v>
+      </c>
+      <c r="D25" s="38">
+        <v>10</v>
+      </c>
+      <c r="E25" s="38">
+        <v>-210</v>
+      </c>
+      <c r="F25" s="38">
+        <v>-210</v>
+      </c>
+      <c r="G25" s="38">
+        <v>5</v>
+      </c>
+      <c r="H25" s="38">
+        <v>90</v>
+      </c>
+      <c r="I25" s="38">
+        <v>90</v>
+      </c>
+      <c r="J25" s="38">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K25" s="38">
+        <f t="shared" si="2"/>
+        <v>-22.235294117647058</v>
+      </c>
+      <c r="L25" s="38">
+        <v>0</v>
+      </c>
+      <c r="M25" s="39"/>
+      <c r="P25" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="38">
+        <f t="shared" si="4"/>
+        <v>-22.235294117647058</v>
+      </c>
+      <c r="T25" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="41">
+        <v>-120</v>
+      </c>
+      <c r="C26" s="41">
+        <v>-210</v>
+      </c>
+      <c r="D26" s="41">
+        <v>10</v>
+      </c>
+      <c r="E26" s="41">
+        <v>-210</v>
+      </c>
+      <c r="F26" s="41">
+        <v>-210</v>
+      </c>
+      <c r="G26" s="41">
+        <v>7</v>
+      </c>
+      <c r="H26" s="41">
+        <v>90</v>
+      </c>
+      <c r="I26" s="41">
+        <v>90</v>
+      </c>
+      <c r="J26" s="41">
+        <f t="shared" si="1"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="K26" s="41">
+        <f t="shared" si="2"/>
+        <v>-22.235294117647058</v>
+      </c>
+      <c r="L26" s="41">
+        <v>0</v>
+      </c>
+      <c r="M26" s="42">
+        <v>20</v>
+      </c>
+      <c r="P26" s="41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="42">
+        <f t="shared" si="4"/>
+        <v>-22.235294117647058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P27" s="18">
+        <f>SUM(P2:P26)</f>
+        <v>-390</v>
+      </c>
+      <c r="Q27" s="18">
+        <f t="shared" ref="Q27:T27" si="5">SUM(Q2:Q26)</f>
+        <v>-190</v>
+      </c>
+      <c r="R27" s="18">
+        <f t="shared" si="5"/>
+        <v>-90</v>
+      </c>
+      <c r="S27" s="18">
+        <f t="shared" si="5"/>
+        <v>-90</v>
+      </c>
+      <c r="T27" s="18">
+        <f t="shared" si="5"/>
+        <v>-90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\works\rachadinha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EE2D23-A1E0-4E6B-9128-46FF0AD3B4CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B855A0-D17A-44A0-8344-599674878CF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
     <sheet name="Planilha3" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="123">
   <si>
     <t>John</t>
   </si>
@@ -313,6 +314,90 @@
   </si>
   <si>
     <t>10z07</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Neon</t>
+  </si>
+  <si>
+    <t>Fluorine</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idbalance:  1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: "Hydrogen"  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idbalance:  2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: "Helium"  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idbalance:  3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: "Lithium" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idbalance:  4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: "Beryllium" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idbalance:  5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: "Boron" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idbalance:  6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name: "Carbon" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idbalance:  7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name: "Nitrogen" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idbalance:  8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name: "Oxygen" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idbalance:  9  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name: "Fluorine" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idbalance:  10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name: "Neon" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idbalance:  11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name: "Sodium" }</t>
   </si>
 </sst>
 </file>
@@ -378,7 +463,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +485,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -643,6 +734,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2536,7 +2628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBCDF93-F762-4FDA-92CF-A92F9FD4A44F}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3627,7 +3719,7 @@
       </c>
       <c r="M18" s="38"/>
       <c r="P18" s="38">
-        <f t="shared" ref="P18:T32" si="4">IF(P$1=$G18,$K18,0)</f>
+        <f t="shared" ref="P18:T26" si="4">IF(P$1=$G18,$K18,0)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="38">
@@ -4170,4 +4262,358 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81371A4F-AB5A-4DFA-AA6D-4FEF107E1F32}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>650</v>
+      </c>
+      <c r="B2" s="45">
+        <f>A2-$B$14</f>
+        <v>150</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="18">
+        <v>30</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="18">
+        <v>11</v>
+      </c>
+      <c r="I2" s="45">
+        <v>100</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>350</v>
+      </c>
+      <c r="B3" s="45">
+        <f t="shared" ref="B3:B12" si="0">A3-$B$14</f>
+        <v>-150</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="18">
+        <v>17</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="18">
+        <v>6</v>
+      </c>
+      <c r="I3" s="45">
+        <v>200</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>700</v>
+      </c>
+      <c r="B4" s="45">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="18">
+        <v>14</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="18">
+        <v>5</v>
+      </c>
+      <c r="I4" s="18">
+        <v>50</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>400</v>
+      </c>
+      <c r="B5" s="45">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="18">
+        <v>13</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="18">
+        <v>5</v>
+      </c>
+      <c r="I5" s="18">
+        <v>50</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>400</v>
+      </c>
+      <c r="B6" s="18">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="18">
+        <v>2</v>
+      </c>
+      <c r="I6" s="45">
+        <v>150</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>200</v>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" si="0"/>
+        <v>-300</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="18">
+        <v>8</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="18">
+        <v>4</v>
+      </c>
+      <c r="I7" s="45">
+        <v>100</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>650</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="18">
+        <v>24</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="18">
+        <v>10</v>
+      </c>
+      <c r="I8" s="45">
+        <v>100</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>650</v>
+      </c>
+      <c r="B9" s="18">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="18">
+        <v>20</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="18">
+        <v>6</v>
+      </c>
+      <c r="I9" s="18">
+        <v>100</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>700</v>
+      </c>
+      <c r="B10" s="18">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>400</v>
+      </c>
+      <c r="B11" s="45">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>400</v>
+      </c>
+      <c r="B12" s="45">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <f>SUM(A2:A12)</f>
+        <v>5500</v>
+      </c>
+      <c r="B14" s="18">
+        <f>A14/11</f>
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>